--- a/数值表7.10/数值版本7.10/奖励配置辅助表/新手等级礼包配置.xlsx
+++ b/数值表7.10/数值版本7.10/奖励配置辅助表/新手等级礼包配置.xlsx
@@ -19,7 +19,7 @@
     <sheet name="物品" sheetId="2" r:id="rId5"/>
     <sheet name="工作表1" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150000" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="298">
   <si>
     <t>ID</t>
   </si>
@@ -1667,13 +1667,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>吉拉</t>
-    <rPh sb="0" eb="1">
-      <t>ji'la</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>低级鱼饵</t>
     <rPh sb="0" eb="1">
       <t>di'ji</t>
@@ -1682,6 +1675,23 @@
       <t>yu'er</t>
     </rPh>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>柯拉</t>
+    <rPh sb="0" eb="1">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>la</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碧翠丝</t>
+    <rPh sb="0" eb="1">
+      <t>bi'cui's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2069,7 +2079,7 @@
   <dimension ref="A1:J974"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D4" sqref="D4:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2169,7 +2179,7 @@
       </c>
       <c r="D4" s="1" t="str">
         <f>VLOOKUP(A4,奖励测试!A:J,7,FALSE)</f>
-        <v>[{"t":"i","i":1,"c":5000,"tr":0},{"t":"i","i":2,"c":200,"tr":0},{"t":"i","i":29001,"c":10,"tr":0},{"t":"i","i":11002,"c":1,"tr":0},{"t":"i","i":25011,"c":5,"tr":0},{"t":"i","i":25012,"c":5,"tr":0},{"t":"c","i":3,"c":1,"tr":0},{"t":"g","i":1,"c":1,"tr":0},{"t":"i","i":35,"c":1,"tr":0}]</v>
+        <v>[{"t":"i","i":1,"c":5000,"tr":0},{"t":"i","i":3,"c":100,"tr":0},{"t":"i","i":29001,"c":10,"tr":0},{"t":"i","i":11002,"c":1,"tr":0},{"t":"i","i":25011,"c":5,"tr":0},{"t":"i","i":25012,"c":5,"tr":0},{"t":"c","i":3,"c":1,"tr":0},{"t":"g","i":1,"c":1,"tr":0},{"t":"i","i":35,"c":1,"tr":0}]</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -2197,7 +2207,7 @@
       </c>
       <c r="D5" s="1" t="str">
         <f>VLOOKUP(A5,奖励测试!A:J,7,FALSE)</f>
-        <v>[{"t":"i","i":1,"c":5000,"tr":0},{"t":"i","i":2,"c":200,"tr":0},{"t":"i","i":88,"c":5,"tr":0},{"t":"i","i":25011,"c":10,"tr":0},{"t":"i","i":25012,"c":10,"tr":0},{"t":"i","i":11003,"c":1,"tr":0}]</v>
+        <v>[{"t":"i","i":1,"c":5000,"tr":0},{"t":"i","i":3,"c":50,"tr":0},{"t":"i","i":88,"c":5,"tr":0},{"t":"i","i":25011,"c":10,"tr":0},{"t":"i","i":25012,"c":10,"tr":0},{"t":"i","i":11003,"c":1,"tr":0}]</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -2225,7 +2235,7 @@
       </c>
       <c r="D6" s="1" t="str">
         <f>VLOOKUP(A6,奖励测试!A:J,7,FALSE)</f>
-        <v>[{"t":"i","i":1,"c":5000,"tr":0},{"t":"i","i":2,"c":200,"tr":0},{"t":"i","i":88,"c":5,"tr":0},{"t":"i","i":25021,"c":10,"tr":0},{"t":"i","i":25022,"c":10,"tr":0},{"t":"i","i":11004,"c":1,"tr":0},{"t":"i","i":21005,"c":25,"tr":0}]</v>
+        <v>[{"t":"i","i":1,"c":5000,"tr":0},{"t":"i","i":3,"c":50,"tr":0},{"t":"i","i":88,"c":5,"tr":0},{"t":"i","i":25021,"c":10,"tr":0},{"t":"i","i":25022,"c":10,"tr":0},{"t":"i","i":11004,"c":1,"tr":0},{"t":"i","i":21013,"c":25,"tr":0}]</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -2253,7 +2263,7 @@
       </c>
       <c r="D7" s="1" t="str">
         <f>VLOOKUP(A7,奖励测试!A:J,7,FALSE)</f>
-        <v>[{"t":"i","i":1,"c":5000,"tr":0},{"t":"i","i":2,"c":200,"tr":0},{"t":"i","i":88,"c":5,"tr":0},{"t":"i","i":25031,"c":10,"tr":0},{"t":"i","i":25032,"c":10,"tr":0},{"t":"i","i":11005,"c":1,"tr":0}]</v>
+        <v>[{"t":"i","i":1,"c":5000,"tr":0},{"t":"i","i":3,"c":50,"tr":0},{"t":"i","i":88,"c":5,"tr":0},{"t":"i","i":25031,"c":10,"tr":0},{"t":"i","i":25032,"c":10,"tr":0},{"t":"i","i":11005,"c":1,"tr":0}]</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -2283,7 +2293,7 @@
       </c>
       <c r="D8" s="1" t="str">
         <f>VLOOKUP(A8,奖励测试!A:J,7,FALSE)</f>
-        <v>[{"t":"i","i":1,"c":5000,"tr":0},{"t":"i","i":2,"c":200,"tr":0},{"t":"i","i":88,"c":5,"tr":0},{"t":"i","i":25041,"c":10,"tr":0},{"t":"i","i":25042,"c":10,"tr":0},{"t":"i","i":11006,"c":1,"tr":0}]</v>
+        <v>[{"t":"i","i":1,"c":5000,"tr":0},{"t":"i","i":3,"c":50,"tr":0},{"t":"i","i":21010,"c":25,"tr":0},{"t":"i","i":25041,"c":10,"tr":0},{"t":"i","i":25042,"c":10,"tr":0},{"t":"i","i":11006,"c":1,"tr":0}]</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -2313,7 +2323,7 @@
       </c>
       <c r="D9" s="1" t="str">
         <f>VLOOKUP(A9,奖励测试!A:J,7,FALSE)</f>
-        <v>[{"t":"i","i":1,"c":5000,"tr":0},{"t":"i","i":2,"c":200,"tr":0},{"t":"i","i":88,"c":5,"tr":0},{"t":"i","i":25051,"c":10,"tr":0},{"t":"i","i":25052,"c":10,"tr":0},{"t":"i","i":11007,"c":1,"tr":0}]</v>
+        <v>[{"t":"i","i":1,"c":5000,"tr":0},{"t":"i","i":3,"c":50,"tr":0},{"t":"i","i":88,"c":5,"tr":0},{"t":"i","i":25051,"c":10,"tr":0},{"t":"i","i":25052,"c":10,"tr":0},{"t":"i","i":11007,"c":1,"tr":0}]</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -2343,7 +2353,7 @@
       </c>
       <c r="D10" s="1" t="str">
         <f>VLOOKUP(A10,奖励测试!A:J,7,FALSE)</f>
-        <v>[{"t":"i","i":1,"c":5000,"tr":0},{"t":"i","i":2,"c":200,"tr":0},{"t":"i","i":88,"c":5,"tr":0},{"t":"i","i":25061,"c":10,"tr":0},{"t":"i","i":25062,"c":10,"tr":0},{"t":"i","i":11008,"c":1,"tr":0}]</v>
+        <v>[{"t":"i","i":1,"c":5000,"tr":0},{"t":"i","i":3,"c":50,"tr":0},{"t":"i","i":88,"c":5,"tr":0},{"t":"i","i":25061,"c":10,"tr":0},{"t":"i","i":25062,"c":10,"tr":0},{"t":"i","i":11008,"c":1,"tr":0}]</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2373,7 +2383,7 @@
       </c>
       <c r="D11" s="1" t="str">
         <f>VLOOKUP(A11,奖励测试!A:J,7,FALSE)</f>
-        <v>[{"t":"i","i":1,"c":5000,"tr":0},{"t":"i","i":2,"c":200,"tr":0},{"t":"i","i":88,"c":5,"tr":0},{"t":"i","i":25071,"c":10,"tr":0},{"t":"i","i":25072,"c":10,"tr":0},{"t":"i","i":11009,"c":1,"tr":0}]</v>
+        <v>[{"t":"i","i":1,"c":5000,"tr":0},{"t":"i","i":3,"c":50,"tr":0},{"t":"i","i":88,"c":5,"tr":0},{"t":"i","i":25071,"c":10,"tr":0},{"t":"i","i":25072,"c":10,"tr":0},{"t":"i","i":11009,"c":1,"tr":0}]</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -2403,7 +2413,7 @@
       </c>
       <c r="D12" s="1" t="str">
         <f>VLOOKUP(A12,奖励测试!A:J,7,FALSE)</f>
-        <v>[{"t":"i","i":1,"c":5000,"tr":0},{"t":"i","i":2,"c":200,"tr":0},{"t":"i","i":88,"c":5,"tr":0},{"t":"i","i":25081,"c":10,"tr":0},{"t":"i","i":25082,"c":10,"tr":0},{"t":"i","i":11010,"c":1,"tr":0}]</v>
+        <v>[{"t":"i","i":1,"c":5000,"tr":0},{"t":"i","i":3,"c":50,"tr":0},{"t":"i","i":88,"c":5,"tr":0},{"t":"i","i":25081,"c":10,"tr":0},{"t":"i","i":25082,"c":10,"tr":0},{"t":"i","i":11010,"c":1,"tr":0}]</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -2433,7 +2443,7 @@
       </c>
       <c r="D13" s="1" t="str">
         <f>VLOOKUP(A13,奖励测试!A:J,7,FALSE)</f>
-        <v>[{"t":"i","i":1,"c":5000,"tr":0},{"t":"i","i":2,"c":200,"tr":0},{"t":"i","i":88,"c":5,"tr":0}]</v>
+        <v>[{"t":"i","i":1,"c":5000,"tr":0},{"t":"i","i":3,"c":50,"tr":0},{"t":"i","i":88,"c":5,"tr":0}]</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -10858,7 +10868,7 @@
       </c>
       <c r="G4" s="3" t="str">
         <f>"["&amp;J4&amp;K4&amp;L4&amp;M4&amp;N4&amp;O4&amp;P4&amp;Q4&amp;R4&amp;S4&amp;T4&amp;U4&amp;V4&amp;W4&amp;X4&amp;Y4&amp;Z4&amp;AA4&amp;AB4&amp;AC4&amp;AD4&amp;AE4&amp;AF4&amp;AG4&amp;AH4&amp;AI4&amp;AJ4&amp;AK4&amp;AL4&amp;AM4&amp;AN4&amp;AO4&amp;AP4&amp;AQ4&amp;AR4&amp;AS4&amp;AT4&amp;AU4&amp;AV4&amp;AW4&amp;AX4&amp;AY4&amp;AZ4&amp;BA4&amp;BB4&amp;BC4&amp;"]"</f>
-        <v>[{"t":"i","i":1,"c":5000,"tr":0},{"t":"i","i":2,"c":200,"tr":0},{"t":"i","i":29001,"c":10,"tr":0},{"t":"i","i":11002,"c":1,"tr":0},{"t":"i","i":25011,"c":5,"tr":0},{"t":"i","i":25012,"c":5,"tr":0},{"t":"c","i":3,"c":1,"tr":0},{"t":"g","i":1,"c":1,"tr":0},{"t":"i","i":35,"c":1,"tr":0}]</v>
+        <v>[{"t":"i","i":1,"c":5000,"tr":0},{"t":"i","i":3,"c":100,"tr":0},{"t":"i","i":29001,"c":10,"tr":0},{"t":"i","i":11002,"c":1,"tr":0},{"t":"i","i":25011,"c":5,"tr":0},{"t":"i","i":25012,"c":5,"tr":0},{"t":"c","i":3,"c":1,"tr":0},{"t":"g","i":1,"c":1,"tr":0},{"t":"i","i":35,"c":1,"tr":0}]</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -10872,7 +10882,7 @@
       </c>
       <c r="K4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B4*1000+K$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"t":"i","i":2,"c":200,"tr":0}</v>
+        <v>,{"t":"i","i":3,"c":100,"tr":0}</v>
       </c>
       <c r="L4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B4*1000+L$3,奖励辅助!$A:$K,11,FALSE),"")</f>
@@ -11088,7 +11098,7 @@
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ref="G5:G13" si="0">"["&amp;J5&amp;K5&amp;L5&amp;M5&amp;N5&amp;O5&amp;P5&amp;Q5&amp;R5&amp;S5&amp;T5&amp;U5&amp;V5&amp;W5&amp;X5&amp;Y5&amp;Z5&amp;AA5&amp;AB5&amp;AC5&amp;AD5&amp;AE5&amp;AF5&amp;AG5&amp;AH5&amp;AI5&amp;AJ5&amp;AK5&amp;AL5&amp;AM5&amp;AN5&amp;AO5&amp;AP5&amp;AQ5&amp;AR5&amp;AS5&amp;AT5&amp;AU5&amp;AV5&amp;AW5&amp;AX5&amp;AY5&amp;AZ5&amp;BA5&amp;BB5&amp;BC5&amp;"]"</f>
-        <v>[{"t":"i","i":1,"c":5000,"tr":0},{"t":"i","i":2,"c":200,"tr":0},{"t":"i","i":88,"c":5,"tr":0},{"t":"i","i":25011,"c":10,"tr":0},{"t":"i","i":25012,"c":10,"tr":0},{"t":"i","i":11003,"c":1,"tr":0}]</v>
+        <v>[{"t":"i","i":1,"c":5000,"tr":0},{"t":"i","i":3,"c":50,"tr":0},{"t":"i","i":88,"c":5,"tr":0},{"t":"i","i":25011,"c":10,"tr":0},{"t":"i","i":25012,"c":10,"tr":0},{"t":"i","i":11003,"c":1,"tr":0}]</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -11102,7 +11112,7 @@
       </c>
       <c r="K5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B5*1000+K$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"t":"i","i":2,"c":200,"tr":0}</v>
+        <v>,{"t":"i","i":3,"c":50,"tr":0}</v>
       </c>
       <c r="L5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B5*1000+L$3,奖励辅助!$A:$K,11,FALSE),"")</f>
@@ -11318,7 +11328,7 @@
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>[{"t":"i","i":1,"c":5000,"tr":0},{"t":"i","i":2,"c":200,"tr":0},{"t":"i","i":88,"c":5,"tr":0},{"t":"i","i":25021,"c":10,"tr":0},{"t":"i","i":25022,"c":10,"tr":0},{"t":"i","i":11004,"c":1,"tr":0},{"t":"i","i":21005,"c":25,"tr":0}]</v>
+        <v>[{"t":"i","i":1,"c":5000,"tr":0},{"t":"i","i":3,"c":50,"tr":0},{"t":"i","i":88,"c":5,"tr":0},{"t":"i","i":25021,"c":10,"tr":0},{"t":"i","i":25022,"c":10,"tr":0},{"t":"i","i":11004,"c":1,"tr":0},{"t":"i","i":21013,"c":25,"tr":0}]</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -11332,7 +11342,7 @@
       </c>
       <c r="K6" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B6*1000+K$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"t":"i","i":2,"c":200,"tr":0}</v>
+        <v>,{"t":"i","i":3,"c":50,"tr":0}</v>
       </c>
       <c r="L6" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B6*1000+L$3,奖励辅助!$A:$K,11,FALSE),"")</f>
@@ -11352,7 +11362,7 @@
       </c>
       <c r="P6" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B6*1000+P$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"t":"i","i":21005,"c":25,"tr":0}</v>
+        <v>,{"t":"i","i":21013,"c":25,"tr":0}</v>
       </c>
       <c r="Q6" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B6*1000+Q$3,奖励辅助!$A:$K,11,FALSE),"")</f>
@@ -11548,7 +11558,7 @@
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>[{"t":"i","i":1,"c":5000,"tr":0},{"t":"i","i":2,"c":200,"tr":0},{"t":"i","i":88,"c":5,"tr":0},{"t":"i","i":25031,"c":10,"tr":0},{"t":"i","i":25032,"c":10,"tr":0},{"t":"i","i":11005,"c":1,"tr":0}]</v>
+        <v>[{"t":"i","i":1,"c":5000,"tr":0},{"t":"i","i":3,"c":50,"tr":0},{"t":"i","i":88,"c":5,"tr":0},{"t":"i","i":25031,"c":10,"tr":0},{"t":"i","i":25032,"c":10,"tr":0},{"t":"i","i":11005,"c":1,"tr":0}]</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -11562,7 +11572,7 @@
       </c>
       <c r="K7" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B7*1000+K$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"t":"i","i":2,"c":200,"tr":0}</v>
+        <v>,{"t":"i","i":3,"c":50,"tr":0}</v>
       </c>
       <c r="L7" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B7*1000+L$3,奖励辅助!$A:$K,11,FALSE),"")</f>
@@ -11778,7 +11788,7 @@
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>[{"t":"i","i":1,"c":5000,"tr":0},{"t":"i","i":2,"c":200,"tr":0},{"t":"i","i":88,"c":5,"tr":0},{"t":"i","i":25041,"c":10,"tr":0},{"t":"i","i":25042,"c":10,"tr":0},{"t":"i","i":11006,"c":1,"tr":0}]</v>
+        <v>[{"t":"i","i":1,"c":5000,"tr":0},{"t":"i","i":3,"c":50,"tr":0},{"t":"i","i":21010,"c":25,"tr":0},{"t":"i","i":25041,"c":10,"tr":0},{"t":"i","i":25042,"c":10,"tr":0},{"t":"i","i":11006,"c":1,"tr":0}]</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -11792,11 +11802,11 @@
       </c>
       <c r="K8" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B8*1000+K$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"t":"i","i":2,"c":200,"tr":0}</v>
+        <v>,{"t":"i","i":3,"c":50,"tr":0}</v>
       </c>
       <c r="L8" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B8*1000+L$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"t":"i","i":88,"c":5,"tr":0}</v>
+        <v>,{"t":"i","i":21010,"c":25,"tr":0}</v>
       </c>
       <c r="M8" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B8*1000+M$3,奖励辅助!$A:$K,11,FALSE),"")</f>
@@ -12008,7 +12018,7 @@
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>[{"t":"i","i":1,"c":5000,"tr":0},{"t":"i","i":2,"c":200,"tr":0},{"t":"i","i":88,"c":5,"tr":0},{"t":"i","i":25051,"c":10,"tr":0},{"t":"i","i":25052,"c":10,"tr":0},{"t":"i","i":11007,"c":1,"tr":0}]</v>
+        <v>[{"t":"i","i":1,"c":5000,"tr":0},{"t":"i","i":3,"c":50,"tr":0},{"t":"i","i":88,"c":5,"tr":0},{"t":"i","i":25051,"c":10,"tr":0},{"t":"i","i":25052,"c":10,"tr":0},{"t":"i","i":11007,"c":1,"tr":0}]</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -12022,7 +12032,7 @@
       </c>
       <c r="K9" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B9*1000+K$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"t":"i","i":2,"c":200,"tr":0}</v>
+        <v>,{"t":"i","i":3,"c":50,"tr":0}</v>
       </c>
       <c r="L9" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B9*1000+L$3,奖励辅助!$A:$K,11,FALSE),"")</f>
@@ -12238,7 +12248,7 @@
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>[{"t":"i","i":1,"c":5000,"tr":0},{"t":"i","i":2,"c":200,"tr":0},{"t":"i","i":88,"c":5,"tr":0},{"t":"i","i":25061,"c":10,"tr":0},{"t":"i","i":25062,"c":10,"tr":0},{"t":"i","i":11008,"c":1,"tr":0}]</v>
+        <v>[{"t":"i","i":1,"c":5000,"tr":0},{"t":"i","i":3,"c":50,"tr":0},{"t":"i","i":88,"c":5,"tr":0},{"t":"i","i":25061,"c":10,"tr":0},{"t":"i","i":25062,"c":10,"tr":0},{"t":"i","i":11008,"c":1,"tr":0}]</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -12252,7 +12262,7 @@
       </c>
       <c r="K10" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B10*1000+K$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"t":"i","i":2,"c":200,"tr":0}</v>
+        <v>,{"t":"i","i":3,"c":50,"tr":0}</v>
       </c>
       <c r="L10" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B10*1000+L$3,奖励辅助!$A:$K,11,FALSE),"")</f>
@@ -12468,7 +12478,7 @@
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>[{"t":"i","i":1,"c":5000,"tr":0},{"t":"i","i":2,"c":200,"tr":0},{"t":"i","i":88,"c":5,"tr":0},{"t":"i","i":25071,"c":10,"tr":0},{"t":"i","i":25072,"c":10,"tr":0},{"t":"i","i":11009,"c":1,"tr":0}]</v>
+        <v>[{"t":"i","i":1,"c":5000,"tr":0},{"t":"i","i":3,"c":50,"tr":0},{"t":"i","i":88,"c":5,"tr":0},{"t":"i","i":25071,"c":10,"tr":0},{"t":"i","i":25072,"c":10,"tr":0},{"t":"i","i":11009,"c":1,"tr":0}]</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -12482,7 +12492,7 @@
       </c>
       <c r="K11" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B11*1000+K$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"t":"i","i":2,"c":200,"tr":0}</v>
+        <v>,{"t":"i","i":3,"c":50,"tr":0}</v>
       </c>
       <c r="L11" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B11*1000+L$3,奖励辅助!$A:$K,11,FALSE),"")</f>
@@ -12698,7 +12708,7 @@
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>[{"t":"i","i":1,"c":5000,"tr":0},{"t":"i","i":2,"c":200,"tr":0},{"t":"i","i":88,"c":5,"tr":0},{"t":"i","i":25081,"c":10,"tr":0},{"t":"i","i":25082,"c":10,"tr":0},{"t":"i","i":11010,"c":1,"tr":0}]</v>
+        <v>[{"t":"i","i":1,"c":5000,"tr":0},{"t":"i","i":3,"c":50,"tr":0},{"t":"i","i":88,"c":5,"tr":0},{"t":"i","i":25081,"c":10,"tr":0},{"t":"i","i":25082,"c":10,"tr":0},{"t":"i","i":11010,"c":1,"tr":0}]</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -12712,7 +12722,7 @@
       </c>
       <c r="K12" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B12*1000+K$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"t":"i","i":2,"c":200,"tr":0}</v>
+        <v>,{"t":"i","i":3,"c":50,"tr":0}</v>
       </c>
       <c r="L12" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B12*1000+L$3,奖励辅助!$A:$K,11,FALSE),"")</f>
@@ -12928,7 +12938,7 @@
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>[{"t":"i","i":1,"c":5000,"tr":0},{"t":"i","i":2,"c":200,"tr":0},{"t":"i","i":88,"c":5,"tr":0}]</v>
+        <v>[{"t":"i","i":1,"c":5000,"tr":0},{"t":"i","i":3,"c":50,"tr":0},{"t":"i","i":88,"c":5,"tr":0}]</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -12942,7 +12952,7 @@
       </c>
       <c r="K13" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B13*1000+K$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"t":"i","i":2,"c":200,"tr":0}</v>
+        <v>,{"t":"i","i":3,"c":50,"tr":0}</v>
       </c>
       <c r="L13" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($B13*1000+L$3,奖励辅助!$A:$K,11,FALSE),"")</f>
@@ -15419,8 +15429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -15584,18 +15594,18 @@
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H10" t="str">
         <f>H$6&amp;VLOOKUP(E10,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":2</v>
+        <v>{"t":"i","i":3</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" ref="I10:I14" si="1">I$5&amp;F10&amp;I$6</f>
-        <v>,"c":200,"tr":0}</v>
+        <v>,"c":100,"tr":0}</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" ref="J10:J14" si="2">IF(G10="","",J$6)</f>
@@ -15603,7 +15613,7 @@
       </c>
       <c r="K10" t="str">
         <f t="shared" ref="K10:K14" si="3">G10&amp;H10&amp;I10&amp;J10</f>
-        <v>{"t":"i","i":2,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":100,"tr":0}</v>
       </c>
       <c r="L10">
         <f t="shared" ref="L10:L14" si="4">IF(C10="","",C10+1)</f>
@@ -15883,7 +15893,7 @@
         <v>9</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -15966,18 +15976,18 @@
         <v>2</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F22">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H22" t="str">
         <f>H$6&amp;VLOOKUP(E22,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":2</v>
+        <v>{"t":"i","i":3</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" ref="I22:I34" si="21">I$5&amp;F22&amp;I$6</f>
-        <v>,"c":200,"tr":0}</v>
+        <v>,"c":50,"tr":0}</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" ref="J22:J34" si="22">IF(G22="","",J$6)</f>
@@ -15985,7 +15995,7 @@
       </c>
       <c r="K22" t="str">
         <f t="shared" ref="K22:K34" si="23">G22&amp;H22&amp;I22&amp;J22</f>
-        <v>{"t":"i","i":2,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":50,"tr":0}</v>
       </c>
       <c r="L22">
         <f t="shared" ref="L22:L87" si="24">IF(C22="","",C22+1)</f>
@@ -16232,18 +16242,18 @@
         <v>2</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F30">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H30" t="str">
         <f>H$6&amp;VLOOKUP(E30,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":2</v>
+        <v>{"t":"i","i":3</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="21"/>
-        <v>,"c":200,"tr":0}</v>
+        <v>,"c":50,"tr":0}</v>
       </c>
       <c r="J30" t="str">
         <f t="shared" si="22"/>
@@ -16251,7 +16261,7 @@
       </c>
       <c r="K30" t="str">
         <f t="shared" si="23"/>
-        <v>{"t":"i","i":2,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":50,"tr":0}</v>
       </c>
       <c r="L30">
         <f t="shared" si="24"/>
@@ -16436,15 +16446,15 @@
       <c r="D35">
         <v>7</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>295</v>
+      <c r="E35" t="s">
+        <v>296</v>
       </c>
       <c r="F35">
         <v>25</v>
       </c>
       <c r="H35" t="str">
         <f>H$6&amp;VLOOKUP(E35,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":21005</v>
+        <v>{"t":"i","i":21013</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" ref="I35" si="29">I$5&amp;F35&amp;I$6</f>
@@ -16456,7 +16466,7 @@
       </c>
       <c r="K35" t="str">
         <f t="shared" ref="K35" si="31">G35&amp;H35&amp;I35&amp;J35</f>
-        <v>{"t":"i","i":21005,"c":25,"tr":0}</v>
+        <v>{"t":"i","i":21013,"c":25,"tr":0}</v>
       </c>
       <c r="L35">
         <f t="shared" ref="L35" si="32">IF(C35="","",C35+1)</f>
@@ -16543,18 +16553,18 @@
         <v>2</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F41">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H41" t="str">
         <f>H$6&amp;VLOOKUP(E41,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":2</v>
+        <v>{"t":"i","i":3</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="34"/>
-        <v>,"c":200,"tr":0}</v>
+        <v>,"c":50,"tr":0}</v>
       </c>
       <c r="J41" t="str">
         <f t="shared" si="35"/>
@@ -16562,7 +16572,7 @@
       </c>
       <c r="K41" t="str">
         <f t="shared" si="36"/>
-        <v>{"t":"i","i":2,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":50,"tr":0}</v>
       </c>
       <c r="L41">
         <f t="shared" si="24"/>
@@ -16807,18 +16817,18 @@
         <v>2</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F49">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H49" t="str">
         <f>H$6&amp;VLOOKUP(E49,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":2</v>
+        <v>{"t":"i","i":3</v>
       </c>
       <c r="I49" t="str">
         <f t="shared" si="38"/>
-        <v>,"c":200,"tr":0}</v>
+        <v>,"c":50,"tr":0}</v>
       </c>
       <c r="J49" t="str">
         <f t="shared" si="39"/>
@@ -16826,7 +16836,7 @@
       </c>
       <c r="K49" t="str">
         <f t="shared" si="40"/>
-        <v>{"t":"i","i":2,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":50,"tr":0}</v>
       </c>
       <c r="L49">
         <f t="shared" si="24"/>
@@ -16848,18 +16858,18 @@
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="F50">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="H50" t="str">
         <f>H$6&amp;VLOOKUP(E50,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":88</v>
+        <v>{"t":"i","i":21010</v>
       </c>
       <c r="I50" t="str">
         <f t="shared" si="38"/>
-        <v>,"c":5,"tr":0}</v>
+        <v>,"c":25,"tr":0}</v>
       </c>
       <c r="J50" t="str">
         <f t="shared" si="39"/>
@@ -16867,7 +16877,7 @@
       </c>
       <c r="K50" t="str">
         <f t="shared" si="40"/>
-        <v>{"t":"i","i":88,"c":5,"tr":0}</v>
+        <v>{"t":"i","i":21010,"c":25,"tr":0}</v>
       </c>
       <c r="L50">
         <f t="shared" si="24"/>
@@ -17071,18 +17081,18 @@
         <v>2</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F57">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H57" t="str">
         <f>H$6&amp;VLOOKUP(E57,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":2</v>
+        <v>{"t":"i","i":3</v>
       </c>
       <c r="I57" t="str">
         <f t="shared" si="42"/>
-        <v>,"c":200,"tr":0}</v>
+        <v>,"c":50,"tr":0}</v>
       </c>
       <c r="J57" t="str">
         <f t="shared" si="43"/>
@@ -17090,7 +17100,7 @@
       </c>
       <c r="K57" t="str">
         <f t="shared" si="44"/>
-        <v>{"t":"i","i":2,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":50,"tr":0}</v>
       </c>
       <c r="L57">
         <f t="shared" si="24"/>
@@ -17335,18 +17345,18 @@
         <v>2</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F65">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H65" t="str">
         <f>H$6&amp;VLOOKUP(E65,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":2</v>
+        <v>{"t":"i","i":3</v>
       </c>
       <c r="I65" t="str">
         <f t="shared" si="46"/>
-        <v>,"c":200,"tr":0}</v>
+        <v>,"c":50,"tr":0}</v>
       </c>
       <c r="J65" t="str">
         <f t="shared" si="47"/>
@@ -17354,7 +17364,7 @@
       </c>
       <c r="K65" t="str">
         <f t="shared" si="48"/>
-        <v>{"t":"i","i":2,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":50,"tr":0}</v>
       </c>
       <c r="L65">
         <f t="shared" si="24"/>
@@ -17599,18 +17609,18 @@
         <v>2</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F73">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H73" t="str">
         <f>H$6&amp;VLOOKUP(E73,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":2</v>
+        <v>{"t":"i","i":3</v>
       </c>
       <c r="I73" t="str">
         <f t="shared" si="50"/>
-        <v>,"c":200,"tr":0}</v>
+        <v>,"c":50,"tr":0}</v>
       </c>
       <c r="J73" t="str">
         <f t="shared" si="51"/>
@@ -17618,7 +17628,7 @@
       </c>
       <c r="K73" t="str">
         <f t="shared" si="52"/>
-        <v>{"t":"i","i":2,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":50,"tr":0}</v>
       </c>
       <c r="L73">
         <f t="shared" si="24"/>
@@ -17863,18 +17873,18 @@
         <v>2</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F81">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H81" t="str">
         <f>H$6&amp;VLOOKUP(E81,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":2</v>
+        <v>{"t":"i","i":3</v>
       </c>
       <c r="I81" t="str">
         <f t="shared" si="54"/>
-        <v>,"c":200,"tr":0}</v>
+        <v>,"c":50,"tr":0}</v>
       </c>
       <c r="J81" t="str">
         <f t="shared" si="55"/>
@@ -17882,7 +17892,7 @@
       </c>
       <c r="K81" t="str">
         <f t="shared" si="56"/>
-        <v>{"t":"i","i":2,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":50,"tr":0}</v>
       </c>
       <c r="L81">
         <f t="shared" si="24"/>
@@ -18127,18 +18137,18 @@
         <v>2</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F89">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H89" t="str">
         <f>H$6&amp;VLOOKUP(E89,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":2</v>
+        <v>{"t":"i","i":3</v>
       </c>
       <c r="I89" t="str">
         <f t="shared" si="58"/>
-        <v>,"c":200,"tr":0}</v>
+        <v>,"c":50,"tr":0}</v>
       </c>
       <c r="J89" t="str">
         <f t="shared" si="59"/>
@@ -18146,7 +18156,7 @@
       </c>
       <c r="K89" t="str">
         <f t="shared" si="60"/>
-        <v>{"t":"i","i":2,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":3,"c":50,"tr":0}</v>
       </c>
       <c r="L89">
         <f t="shared" si="61"/>
@@ -18207,7 +18217,7 @@
   <dimension ref="A1:K216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
